--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\synnp\Documents\Code\AtlantaCrime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA993F5D-3BA7-42F2-8078-35369D5DB7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{EA993F5D-3BA7-42F2-8078-35369D5DB7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E807C0CC-1CE4-4CB5-A255-EE5C690EAB8A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCB445CE-7C39-4A39-829B-1B15433A8EFE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataDictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,9 +35,164 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>GEOID</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Unique identifier for each block group area from the U.S. Census Bureau.</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Name of the block group, typically indicating a specific location or area within the region.</t>
+  </si>
+  <si>
+    <t>tot_popE</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>Total population within the block group area.</t>
+  </si>
+  <si>
+    <t>pop_den</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>people per sqm</t>
+  </si>
+  <si>
+    <t>Population density, indicating the number of people per square meter within the block group.</t>
+  </si>
+  <si>
+    <t>white_ratio</t>
+  </si>
+  <si>
+    <t>people per total population</t>
+  </si>
+  <si>
+    <t>Proportion of the population identifying as White relative to the total population in the block group.</t>
+  </si>
+  <si>
+    <t>black_ratio</t>
+  </si>
+  <si>
+    <t>Proportion of the population identifying as Black or African American relative to the total population.</t>
+  </si>
+  <si>
+    <t>other_ratio</t>
+  </si>
+  <si>
+    <t>Proportion of the population identifying as other races, including Native, Asian, and Pacific Islander.</t>
+  </si>
+  <si>
+    <t>median_incomeE</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Median household income for the tract of each blockgroup, in U.S. dollars (USD).</t>
+  </si>
+  <si>
+    <t>less_than_hs_ratio</t>
+  </si>
+  <si>
+    <t>Proportion of the population aged 25 and older with less than a high school education.</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>Percentage of the block group area zoned for commercial land use according to zoning data.</t>
+  </si>
+  <si>
+    <t>HighdensityResidential</t>
+  </si>
+  <si>
+    <t>Percentage of the block group area zoned for high-density residential land use according to zoning data.</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Percentage of the block group area zoned for industrial land use according to zoning data.</t>
+  </si>
+  <si>
+    <t>Institutional</t>
+  </si>
+  <si>
+    <t>Percentage of the block group area zoned for institutional land use, such as schools or hospitals.</t>
+  </si>
+  <si>
+    <t>LowdensityResidential</t>
+  </si>
+  <si>
+    <t>Percentage of the block group area zoned for low-density residential land use according to zoning data.</t>
+  </si>
+  <si>
+    <t>ResidentialCommercial</t>
+  </si>
+  <si>
+    <t>Percentage of the block group area zoned for mixed residential and commercial land use.</t>
+  </si>
+  <si>
+    <t>min_station_dist</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>Distance from the centroid of the block group to the nearest police station, in meters.</t>
+  </si>
+  <si>
+    <t>violent_count</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Total number of violent crime incidents reported within the block group area.</t>
+  </si>
+  <si>
+    <t>nonviolent_count</t>
+  </si>
+  <si>
+    <t>Total number of non-violent crime incidents reported within the block group area.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,13 +208,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,8 +249,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -414,12 +593,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6F8028-D451-4A29-9314-BE04F2B3ED5E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="22.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="89" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
